--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,24 +462,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>6</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>31-35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,49 +462,24 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
